--- a/Paper_Analysis/2020 Paper Analysis.xlsx
+++ b/Paper_Analysis/2020 Paper Analysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="812">
   <si>
     <t>Paper Title</t>
   </si>
@@ -2267,6 +2267,186 @@
   </si>
   <si>
     <t>Luca Cernuzzi</t>
+  </si>
+  <si>
+    <t>Automatic retrieval and analysis of high availability scenarios from system execution traces: A case study on hot standby router protocol</t>
+  </si>
+  <si>
+    <t>High availability, Dynamic analysis, System execution traces, Failure detection, IP networks</t>
+  </si>
+  <si>
+    <t>Maged Sheghdara</t>
+  </si>
+  <si>
+    <t>Department of Information and Computer Science, KFUPM</t>
+  </si>
+  <si>
+    <t>Jameleddine Hassine</t>
+  </si>
+  <si>
+    <t>A framework for pervasive computing applications based on smart objects...</t>
+  </si>
+  <si>
+    <t>Pervasive computing, Smart Objects, End-user development, System engineering, User experience</t>
+  </si>
+  <si>
+    <t>Christos Goumopoulos</t>
+  </si>
+  <si>
+    <t>Department of Information &amp; Communication Systems Engineering, University of the Aegean; Computer Technology Institute and Press, Diophantus, Patras</t>
+  </si>
+  <si>
+    <t>Irene Mavrommati</t>
+  </si>
+  <si>
+    <t>Hellenic Open University, School of Applied Arts</t>
+  </si>
+  <si>
+    <t>ThermoSim: Deep learning based framework for modeling and simulation of thermal-aware resource management for cloud computing environments</t>
+  </si>
+  <si>
+    <t>Cloud computing, Energy consumption, Temperature, Neural networks, Resource management</t>
+  </si>
+  <si>
+    <t>Sukhpal Singh Gill</t>
+  </si>
+  <si>
+    <t>Queen Mary University of London, Cloud Computing and Distributed Systems (CLOUDS) Laboratory, The University of Melbourne</t>
+  </si>
+  <si>
+    <t>UK, Australia</t>
+  </si>
+  <si>
+    <t>Shreshth Tuli</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology (IIT) Delhi</t>
+  </si>
+  <si>
+    <t>Adel Nadjaran Toosi</t>
+  </si>
+  <si>
+    <t>Monash University</t>
+  </si>
+  <si>
+    <t>Felix Cuadrado</t>
+  </si>
+  <si>
+    <t>Queen Mary University of London, Technical University of Madrid (UPM)</t>
+  </si>
+  <si>
+    <t>UK, Spain</t>
+  </si>
+  <si>
+    <t>Peter Garraghan</t>
+  </si>
+  <si>
+    <t>Lancaster University</t>
+  </si>
+  <si>
+    <t>Rami Bahsoon</t>
+  </si>
+  <si>
+    <t>University of Birmingham</t>
+  </si>
+  <si>
+    <t>Hanan Lutfiyya</t>
+  </si>
+  <si>
+    <t>University of Western Ontario</t>
+  </si>
+  <si>
+    <t>Rizos Sakellariou</t>
+  </si>
+  <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
+    <t>Omer Rana</t>
+  </si>
+  <si>
+    <t>Cardiff University</t>
+  </si>
+  <si>
+    <t>Schahram Dustdar</t>
+  </si>
+  <si>
+    <t>Vienna University of Technology</t>
+  </si>
+  <si>
+    <t>Cloud Computing and Distributed Systems (CLOUDS) Laboratory, The University of Melbourne</t>
+  </si>
+  <si>
+    <t>Adaptive metamorphic testing with contextual bandits</t>
+  </si>
+  <si>
+    <t>Software testing, Reinforcement learning, Machine learning, Image classification, Object detection</t>
+  </si>
+  <si>
+    <t>Helge Spieker</t>
+  </si>
+  <si>
+    <t>Simula Research Laboratory, Lysaker 1325, Norway</t>
+  </si>
+  <si>
+    <t>Arnaud Gotlieb</t>
+  </si>
+  <si>
+    <t>TD, Software reuse, Principal, Interest, OSS</t>
+  </si>
+  <si>
+    <t>Data Research Centre, University of Groningen</t>
+  </si>
+  <si>
+    <t>Department of Applied Informatics, University of Macedonia</t>
+  </si>
+  <si>
+    <t>Department of Management Science and Technology, Athens University of Economics and Business</t>
+  </si>
+  <si>
+    <t>Department of Informatics and Telecommunications, University of Western Macedonia</t>
+  </si>
+  <si>
+    <t>Automated defect identification via path analysis-based features with transfer learning</t>
+  </si>
+  <si>
+    <t>Code generation, defect identification, machine learning, transfer learning, software engineering</t>
+  </si>
+  <si>
+    <t>Yuwei Zhang</t>
+  </si>
+  <si>
+    <t>State Key Laboratory of Networking and Switching Technology, Beijing University of Posts and Telecommunications</t>
+  </si>
+  <si>
+    <t>Dahai Jin</t>
+  </si>
+  <si>
+    <t>Ying Xing</t>
+  </si>
+  <si>
+    <t>Automation School, Beijing University of Posts and Telecommunications</t>
+  </si>
+  <si>
+    <t>Yunzhan Gong</t>
+  </si>
+  <si>
+    <t>General framework, opportunities and challenges for crowdsourcing techniques: A Comprehensive survey</t>
+  </si>
+  <si>
+    <t>Crowdsourcing, open innovation, scalability, task decomposition, answer aggregation</t>
+  </si>
+  <si>
+    <t>Shahzad Sarwar Bhatti</t>
+  </si>
+  <si>
+    <t>The Shanghai Key Laboratory of Scalable Computing and Systems, Department of Computer Science and Engineering, Shanghai Jiao Tong University</t>
+  </si>
+  <si>
+    <t>Xiaofeng Gao</t>
+  </si>
+  <si>
+    <t>Guihai Chen</t>
   </si>
 </sst>
 </file>
@@ -22249,6 +22429,1672 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G343" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H343" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I343" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J343" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K343" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L343" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M343" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N343" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O343" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P343" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q343" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R343" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S343" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T343" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H344" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O344" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R344" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S344" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T344" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H345" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J345" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M345" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N345" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q345" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S345" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T345" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G346" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H346" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L346" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q346" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S346" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T346" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="G347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J347" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M347" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N347" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P347" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S347" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T347" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="C348" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H348" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L348" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O348" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q348" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S348" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T348" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="C349" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H349" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P349" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S349" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T349" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="C350" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="G350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I350" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O350" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S350" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T350" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="C351" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I351" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L351" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P351" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R351" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S351" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T351" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="C352" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H352" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q352" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S352" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T352" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="C353" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R353" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S353" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T353" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="C354" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I354" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S354" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T354" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="C355" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G355" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P355" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S355" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T355" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="C356" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R356" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S356" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T356" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="C357" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G357" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H357" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I357" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J357" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K357" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L357" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M357" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N357" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O357" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P357" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q357" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R357" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S357" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T357" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G358" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H358" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I358" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J358" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K358" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L358" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M358" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N358" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O358" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P358" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q358" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R358" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S358" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T358" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="C359" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J359" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L359" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P359" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R359" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S359" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T359" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G360" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H360" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I360" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J360" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K360" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L360" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M360" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N360" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O360" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P360" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q360" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R360" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S360" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T360" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G361" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H361" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L361" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R361" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S361" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T361" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G362" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L362" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O362" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R362" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S362" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T362" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="C363" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G363" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L363" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R363" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S363" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T363" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G364" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L364" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R364" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S364" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T364" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G365" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K365" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="L365" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O365" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R365" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S365" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T365" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G366" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q366" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S366" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T366" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S367" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T367" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J368" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P368" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S368" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T368" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G369" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L369" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R369" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S369" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="T369" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="C370" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S370" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T370" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P371" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S371" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T371" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Paper_Analysis/2020 Paper Analysis.xlsx
+++ b/Paper_Analysis/2020 Paper Analysis.xlsx
@@ -2495,7 +2495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2512,6 +2512,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -24095,6 +24096,12 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="372">
+      <c r="A372" s="6">
+        <f>COUNTIF(A2:A369, "*")</f>
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
